--- a/test_data/test_data_10.xlsx
+++ b/test_data/test_data_10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1792,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -1800,7 +1800,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -1808,7 +1808,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -1816,7 +1816,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -1824,7 +1824,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -1864,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2127,7 +2127,7 @@
         <v>69</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -2143,7 +2143,7 @@
         <v>71</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -2239,7 +2239,7 @@
         <v>83</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -2327,7 +2327,7 @@
         <v>94</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -2335,7 +2335,7 @@
         <v>95</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -2351,7 +2351,7 @@
         <v>97</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -2391,7 +2391,7 @@
         <v>102</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -2415,7 +2415,7 @@
         <v>105</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -2439,7 +2439,7 @@
         <v>108</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -2471,7 +2471,7 @@
         <v>112</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -2479,7 +2479,7 @@
         <v>113</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -2535,7 +2535,7 @@
         <v>120</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -2575,7 +2575,7 @@
         <v>125</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -2607,7 +2607,7 @@
         <v>129</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -2660,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2685,7 +2685,7 @@
         <v>135</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -2797,7 +2797,7 @@
         <v>149</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -2893,7 +2893,7 @@
         <v>161</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -2941,7 +2941,7 @@
         <v>167</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -2957,7 +2957,7 @@
         <v>169</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -2965,7 +2965,7 @@
         <v>170</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -2981,7 +2981,7 @@
         <v>172</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -3061,7 +3061,7 @@
         <v>182</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -3069,7 +3069,7 @@
         <v>183</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -3077,7 +3077,7 @@
         <v>184</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -3085,7 +3085,7 @@
         <v>185</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -3093,7 +3093,7 @@
         <v>186</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -3421,7 +3421,7 @@
         <v>224</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -3429,7 +3429,7 @@
         <v>225</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -3485,7 +3485,7 @@
         <v>232</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -3493,7 +3493,7 @@
         <v>233</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -3501,7 +3501,7 @@
         <v>234</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -3757,7 +3757,7 @@
         <v>266</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -3818,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4000,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4113,7 +4113,7 @@
         <v>303</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -4129,7 +4129,7 @@
         <v>305</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -4225,7 +4225,7 @@
         <v>317</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -4313,7 +4313,7 @@
         <v>328</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
